--- a/data/pca/factorExposure/factorExposure_2016-11-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01721336917157205</v>
+        <v>0.014026270319233</v>
       </c>
       <c r="C2">
-        <v>0.04404313515947843</v>
+        <v>-0.04215054073148812</v>
       </c>
       <c r="D2">
-        <v>0.01914054889264308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05499502240302333</v>
+      </c>
+      <c r="E2">
+        <v>-0.01754122799970736</v>
+      </c>
+      <c r="F2">
+        <v>0.08866808839034605</v>
+      </c>
+      <c r="G2">
+        <v>0.03637343084866419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05678952806039743</v>
+        <v>0.03501364537905228</v>
       </c>
       <c r="C3">
-        <v>0.103080595873741</v>
+        <v>-0.08953028315559512</v>
       </c>
       <c r="D3">
-        <v>0.02803003884168005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09291030511483339</v>
+      </c>
+      <c r="E3">
+        <v>-0.03082440398410246</v>
+      </c>
+      <c r="F3">
+        <v>0.09085234895395199</v>
+      </c>
+      <c r="G3">
+        <v>-0.0679750861827324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06177496225538149</v>
+        <v>0.05672017111785055</v>
       </c>
       <c r="C4">
-        <v>0.0649452736581973</v>
+        <v>-0.06148027084382062</v>
       </c>
       <c r="D4">
-        <v>0.000198823791070075</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05574535997025379</v>
+      </c>
+      <c r="E4">
+        <v>-0.01152019096914168</v>
+      </c>
+      <c r="F4">
+        <v>0.09453819598437498</v>
+      </c>
+      <c r="G4">
+        <v>-0.0247761665372225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02526752515812927</v>
+        <v>0.03503875402218768</v>
       </c>
       <c r="C6">
-        <v>0.05006052861723262</v>
+        <v>-0.03852563668745951</v>
       </c>
       <c r="D6">
-        <v>0.008342057982327764</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0639967083951679</v>
+      </c>
+      <c r="E6">
+        <v>-0.01708271071209862</v>
+      </c>
+      <c r="F6">
+        <v>0.08837146971678859</v>
+      </c>
+      <c r="G6">
+        <v>-0.005990654099137194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02256252511454165</v>
+        <v>0.02101045616877857</v>
       </c>
       <c r="C7">
-        <v>0.04578857453865728</v>
+        <v>-0.03775638583158899</v>
       </c>
       <c r="D7">
-        <v>-0.01555327122889962</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.02936871720408527</v>
+      </c>
+      <c r="E7">
+        <v>0.0004398001011063499</v>
+      </c>
+      <c r="F7">
+        <v>0.1173106629979043</v>
+      </c>
+      <c r="G7">
+        <v>0.009784588623358098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001683262299260407</v>
+        <v>0.006500404405193201</v>
       </c>
       <c r="C8">
-        <v>0.01004830008219561</v>
+        <v>-0.01976068764808851</v>
       </c>
       <c r="D8">
-        <v>0.01402736631889712</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0336128029782424</v>
+      </c>
+      <c r="E8">
+        <v>-0.01058343649424083</v>
+      </c>
+      <c r="F8">
+        <v>0.0697284009601591</v>
+      </c>
+      <c r="G8">
+        <v>-0.006503733813139766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02845457996175009</v>
+        <v>0.03606576695206416</v>
       </c>
       <c r="C9">
-        <v>0.04480609486748762</v>
+        <v>-0.04851287867985255</v>
       </c>
       <c r="D9">
-        <v>-0.006561069877810669</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03744011495602882</v>
+      </c>
+      <c r="E9">
+        <v>-0.00876055719442856</v>
+      </c>
+      <c r="F9">
+        <v>0.09962327451024806</v>
+      </c>
+      <c r="G9">
+        <v>-0.008755582627503299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08203710004239727</v>
+        <v>0.09581521494047902</v>
       </c>
       <c r="C10">
-        <v>-0.199460290741774</v>
+        <v>0.1947495852020036</v>
       </c>
       <c r="D10">
-        <v>0.0226013672368716</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01259344429893751</v>
+      </c>
+      <c r="E10">
+        <v>-0.03138162264566002</v>
+      </c>
+      <c r="F10">
+        <v>0.051632131744273</v>
+      </c>
+      <c r="G10">
+        <v>-0.0008321715426003622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04245582446602767</v>
+        <v>0.03762658553692314</v>
       </c>
       <c r="C11">
-        <v>0.05542028704572034</v>
+        <v>-0.05358488058537146</v>
       </c>
       <c r="D11">
-        <v>-0.01316098963689864</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02390952944451625</v>
+      </c>
+      <c r="E11">
+        <v>0.01267164953738412</v>
+      </c>
+      <c r="F11">
+        <v>0.06909506811310119</v>
+      </c>
+      <c r="G11">
+        <v>-0.005567723417784898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03618789540951488</v>
+        <v>0.03735485570061554</v>
       </c>
       <c r="C12">
-        <v>0.04485195213117207</v>
+        <v>-0.04755901074278442</v>
       </c>
       <c r="D12">
-        <v>-0.01136877637873286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.01852302995989725</v>
+      </c>
+      <c r="E12">
+        <v>0.003753959527169165</v>
+      </c>
+      <c r="F12">
+        <v>0.07076845258707035</v>
+      </c>
+      <c r="G12">
+        <v>-0.001341982472922226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.009666951101704261</v>
+        <v>0.01352537559181164</v>
       </c>
       <c r="C13">
-        <v>0.04127335078857019</v>
+        <v>-0.04043525620795186</v>
       </c>
       <c r="D13">
-        <v>0.01396110188967178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06133473158742887</v>
+      </c>
+      <c r="E13">
+        <v>-0.02754448909777846</v>
+      </c>
+      <c r="F13">
+        <v>0.1325070872402367</v>
+      </c>
+      <c r="G13">
+        <v>-0.009259449124148876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.005931865663271151</v>
+        <v>0.008500358992952598</v>
       </c>
       <c r="C14">
-        <v>0.02946811511220315</v>
+        <v>-0.02817135837639191</v>
       </c>
       <c r="D14">
-        <v>-0.01404323808731965</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02254419685476539</v>
+      </c>
+      <c r="E14">
+        <v>-0.007344894177581176</v>
+      </c>
+      <c r="F14">
+        <v>0.106242278635433</v>
+      </c>
+      <c r="G14">
+        <v>0.01596701089732774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001034047204967321</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.0002972427084731611</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.001383539524354062</v>
+      </c>
+      <c r="E15">
+        <v>0.0009153708061468747</v>
+      </c>
+      <c r="F15">
+        <v>0.0009543087578567939</v>
+      </c>
+      <c r="G15">
+        <v>0.0006694533595983739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03628329066777954</v>
+        <v>0.03482195208564661</v>
       </c>
       <c r="C16">
-        <v>0.04063909659473422</v>
+        <v>-0.04553696852207191</v>
       </c>
       <c r="D16">
-        <v>-0.003700887327275063</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02260760972126908</v>
+      </c>
+      <c r="E16">
+        <v>-0.00295097058714008</v>
+      </c>
+      <c r="F16">
+        <v>0.07454786205669765</v>
+      </c>
+      <c r="G16">
+        <v>0.009180104040176917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03403819179990157</v>
+        <v>0.02067255341274285</v>
       </c>
       <c r="C19">
-        <v>0.05833989512689976</v>
+        <v>-0.05070639888073773</v>
       </c>
       <c r="D19">
-        <v>0.03407118229015553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09993372162934402</v>
+      </c>
+      <c r="E19">
+        <v>-0.03134694052826208</v>
+      </c>
+      <c r="F19">
+        <v>0.1401257625175378</v>
+      </c>
+      <c r="G19">
+        <v>0.02489615069899181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01334281244581693</v>
+        <v>0.01611206361219564</v>
       </c>
       <c r="C20">
-        <v>0.04432676787865098</v>
+        <v>-0.03886502401913857</v>
       </c>
       <c r="D20">
-        <v>0.01938754427367801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04498555544247078</v>
+      </c>
+      <c r="E20">
+        <v>-0.03411124553113692</v>
+      </c>
+      <c r="F20">
+        <v>0.1023312713305957</v>
+      </c>
+      <c r="G20">
+        <v>0.008412269204992502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.007559071500479345</v>
+        <v>0.0090566994877554</v>
       </c>
       <c r="C21">
-        <v>0.03955570751484702</v>
+        <v>-0.03905724292401194</v>
       </c>
       <c r="D21">
-        <v>0.02292509263556202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06278234793768041</v>
+      </c>
+      <c r="E21">
+        <v>-0.02825472851970063</v>
+      </c>
+      <c r="F21">
+        <v>0.1492666661824841</v>
+      </c>
+      <c r="G21">
+        <v>0.005451755704671644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.004436978257546481</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01488964456952481</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.02456030786954298</v>
+      </c>
+      <c r="E22">
+        <v>-0.001741019451284603</v>
+      </c>
+      <c r="F22">
+        <v>0.02021722358897099</v>
+      </c>
+      <c r="G22">
+        <v>-0.0337573151120362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.004469643711642748</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0148177325661406</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.02431847489705808</v>
+      </c>
+      <c r="E23">
+        <v>-0.002045972366990489</v>
+      </c>
+      <c r="F23">
+        <v>0.01992426436501543</v>
+      </c>
+      <c r="G23">
+        <v>-0.03383140056081747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02918899518104989</v>
+        <v>0.03120372651021324</v>
       </c>
       <c r="C24">
-        <v>0.04720406525333556</v>
+        <v>-0.05116861843039019</v>
       </c>
       <c r="D24">
-        <v>-0.01358373414136904</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02084879366970115</v>
+      </c>
+      <c r="E24">
+        <v>0.005206404190001871</v>
+      </c>
+      <c r="F24">
+        <v>0.07690006932391022</v>
+      </c>
+      <c r="G24">
+        <v>0.002629843195725912</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04730038207769749</v>
+        <v>0.04335271856813482</v>
       </c>
       <c r="C25">
-        <v>0.05440131246505393</v>
+        <v>-0.05717784474864548</v>
       </c>
       <c r="D25">
-        <v>-0.02280498659805146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01591572355979284</v>
+      </c>
+      <c r="E25">
+        <v>0.005549468854682373</v>
+      </c>
+      <c r="F25">
+        <v>0.08546747427028058</v>
+      </c>
+      <c r="G25">
+        <v>-0.0124250643239902</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.009310254190852003</v>
+        <v>0.01562756638484688</v>
       </c>
       <c r="C26">
-        <v>0.01185986097038194</v>
+        <v>-0.01309817504043839</v>
       </c>
       <c r="D26">
-        <v>-0.001157526262816991</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01685472829829611</v>
+      </c>
+      <c r="E26">
+        <v>-0.009172386881781645</v>
+      </c>
+      <c r="F26">
+        <v>0.08295454462033601</v>
+      </c>
+      <c r="G26">
+        <v>0.0214219236286105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09522359611437467</v>
+        <v>0.128558996468529</v>
       </c>
       <c r="C28">
-        <v>-0.2284341981777651</v>
+        <v>0.2449728224251354</v>
       </c>
       <c r="D28">
-        <v>0.01324388166362961</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.005395281214154679</v>
+      </c>
+      <c r="E28">
+        <v>-0.03593577768138505</v>
+      </c>
+      <c r="F28">
+        <v>0.06112034508094721</v>
+      </c>
+      <c r="G28">
+        <v>-0.007532623767754934</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01073399306592386</v>
+        <v>0.009070466261796195</v>
       </c>
       <c r="C29">
-        <v>0.02155888799542631</v>
+        <v>-0.02414805289417642</v>
       </c>
       <c r="D29">
-        <v>-0.01190257687359694</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01308617356180766</v>
+      </c>
+      <c r="E29">
+        <v>-0.01217104303545512</v>
+      </c>
+      <c r="F29">
+        <v>0.1006921134046235</v>
+      </c>
+      <c r="G29">
+        <v>0.002153752695093439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04066142546543444</v>
+        <v>0.03890940439907288</v>
       </c>
       <c r="C30">
-        <v>0.07216206741150921</v>
+        <v>-0.06589822956158493</v>
       </c>
       <c r="D30">
-        <v>-0.003763109092745917</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09041709197067081</v>
+      </c>
+      <c r="E30">
+        <v>0.01430537478261566</v>
+      </c>
+      <c r="F30">
+        <v>0.1100779962720625</v>
+      </c>
+      <c r="G30">
+        <v>0.02923563417973471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04208889649771131</v>
+        <v>0.05722376845516395</v>
       </c>
       <c r="C31">
-        <v>0.03056489634530426</v>
+        <v>-0.0441898945630268</v>
       </c>
       <c r="D31">
-        <v>-0.01418546910991235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.002794192950784984</v>
+      </c>
+      <c r="E31">
+        <v>-0.03440384208253567</v>
+      </c>
+      <c r="F31">
+        <v>0.09302308000401183</v>
+      </c>
+      <c r="G31">
+        <v>-0.02710468652607411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007225134037804838</v>
+        <v>0.005004815049177108</v>
       </c>
       <c r="C32">
-        <v>0.03500899582008022</v>
+        <v>-0.02629000769336996</v>
       </c>
       <c r="D32">
-        <v>0.009205751552866131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04312060077559641</v>
+      </c>
+      <c r="E32">
+        <v>0.00442105748869651</v>
+      </c>
+      <c r="F32">
+        <v>0.07932492637469295</v>
+      </c>
+      <c r="G32">
+        <v>0.009807136789454265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03034006107575943</v>
+        <v>0.02705656563179211</v>
       </c>
       <c r="C33">
-        <v>0.05608911243043577</v>
+        <v>-0.0485264562835863</v>
       </c>
       <c r="D33">
-        <v>0.002198153377893901</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07004457467646169</v>
+      </c>
+      <c r="E33">
+        <v>-0.00772528876638339</v>
+      </c>
+      <c r="F33">
+        <v>0.1528027153424645</v>
+      </c>
+      <c r="G33">
+        <v>-0.006117874863641621</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05343435449347355</v>
+        <v>0.04388970461864966</v>
       </c>
       <c r="C34">
-        <v>0.05314276196330887</v>
+        <v>-0.06207778049651703</v>
       </c>
       <c r="D34">
-        <v>-0.01824329389375038</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.02241452972641575</v>
+      </c>
+      <c r="E34">
+        <v>0.01880130691804631</v>
+      </c>
+      <c r="F34">
+        <v>0.07953413728639945</v>
+      </c>
+      <c r="G34">
+        <v>6.416733141661248e-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.009992019766185321</v>
+        <v>0.01583624910751485</v>
       </c>
       <c r="C36">
-        <v>0.007844004407345364</v>
+        <v>-0.008537659686802937</v>
       </c>
       <c r="D36">
-        <v>-0.007386626230642989</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02006795330041696</v>
+      </c>
+      <c r="E36">
+        <v>-0.0137261687448045</v>
+      </c>
+      <c r="F36">
+        <v>0.09603899604175227</v>
+      </c>
+      <c r="G36">
+        <v>-0.0006406907026883396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03770689811542945</v>
+        <v>0.03084428196509824</v>
       </c>
       <c r="C38">
-        <v>0.02128708412894496</v>
+        <v>-0.02206333664109025</v>
       </c>
       <c r="D38">
-        <v>-0.009643776946166966</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01987306749318546</v>
+      </c>
+      <c r="E38">
+        <v>-0.01547923266092498</v>
+      </c>
+      <c r="F38">
+        <v>0.08769121226780434</v>
+      </c>
+      <c r="G38">
+        <v>-0.002641712277474549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.03823100754656812</v>
+        <v>0.03772218958699041</v>
       </c>
       <c r="C39">
-        <v>0.08478692971666589</v>
+        <v>-0.07557253112848752</v>
       </c>
       <c r="D39">
-        <v>0.001911298002244257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04546225483958492</v>
+      </c>
+      <c r="E39">
+        <v>0.01305265462206718</v>
+      </c>
+      <c r="F39">
+        <v>0.08577421847754099</v>
+      </c>
+      <c r="G39">
+        <v>0.03332014711526056</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01703527676928673</v>
+        <v>0.0177708253818493</v>
       </c>
       <c r="C40">
-        <v>0.02672773111723249</v>
+        <v>-0.03806394556807997</v>
       </c>
       <c r="D40">
-        <v>0.01637443721414283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03360691176528974</v>
+      </c>
+      <c r="E40">
+        <v>-0.03263810846424484</v>
+      </c>
+      <c r="F40">
+        <v>0.1174909864159808</v>
+      </c>
+      <c r="G40">
+        <v>-0.04097631019016024</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01170999155000934</v>
+        <v>0.01914262225468203</v>
       </c>
       <c r="C41">
-        <v>-0.0009029231646942007</v>
+        <v>0.0008755730724458491</v>
       </c>
       <c r="D41">
-        <v>-0.007824091772219212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01626097399738189</v>
+      </c>
+      <c r="E41">
+        <v>-0.01729913019766465</v>
+      </c>
+      <c r="F41">
+        <v>0.08742846553025341</v>
+      </c>
+      <c r="G41">
+        <v>0.006418236222859106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.002736178275755684</v>
+        <v>0.00242138243401566</v>
       </c>
       <c r="C42">
-        <v>0.04710166730585162</v>
+        <v>-0.02533678402722294</v>
       </c>
       <c r="D42">
-        <v>0.02617884199589586</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.003591816201831717</v>
+      </c>
+      <c r="E42">
+        <v>-0.02228976504532591</v>
+      </c>
+      <c r="F42">
+        <v>-0.0351891330589162</v>
+      </c>
+      <c r="G42">
+        <v>0.013595191643839</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03350531556964814</v>
+        <v>0.03323754801989442</v>
       </c>
       <c r="C43">
-        <v>0.01128089686222516</v>
+        <v>-0.01317893527370903</v>
       </c>
       <c r="D43">
-        <v>-0.009378713881597906</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03444665882001309</v>
+      </c>
+      <c r="E43">
+        <v>-0.01437151061530434</v>
+      </c>
+      <c r="F43">
+        <v>0.1108793727940722</v>
+      </c>
+      <c r="G43">
+        <v>-0.01589719835917238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02176070350808199</v>
+        <v>0.01448565997134952</v>
       </c>
       <c r="C44">
-        <v>0.05432606704415792</v>
+        <v>-0.05198650402659219</v>
       </c>
       <c r="D44">
-        <v>0.002321127978927211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03853945068444229</v>
+      </c>
+      <c r="E44">
+        <v>-0.02415348124089865</v>
+      </c>
+      <c r="F44">
+        <v>0.1098501148172186</v>
+      </c>
+      <c r="G44">
+        <v>0.009142693164951473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0002228340596517918</v>
+        <v>0.01047040138703527</v>
       </c>
       <c r="C46">
-        <v>0.01470960546257848</v>
+        <v>-0.01921011826514495</v>
       </c>
       <c r="D46">
-        <v>-0.02117985142683519</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.006024104974266579</v>
+      </c>
+      <c r="E46">
+        <v>-0.01713944101479508</v>
+      </c>
+      <c r="F46">
+        <v>0.1099031449579749</v>
+      </c>
+      <c r="G46">
+        <v>0.008752970104707502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07813915598012791</v>
+        <v>0.08745101776439791</v>
       </c>
       <c r="C47">
-        <v>0.06716786851826501</v>
+        <v>-0.07427756474243855</v>
       </c>
       <c r="D47">
-        <v>-0.008149634269914384</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.009985481078010373</v>
+      </c>
+      <c r="E47">
+        <v>-0.04348355202651184</v>
+      </c>
+      <c r="F47">
+        <v>0.09288640306214224</v>
+      </c>
+      <c r="G47">
+        <v>-0.03062034008291733</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01766569598315302</v>
+        <v>0.01738349881515407</v>
       </c>
       <c r="C48">
-        <v>0.01090506584927284</v>
+        <v>-0.01562089810732105</v>
       </c>
       <c r="D48">
-        <v>-0.01102934153345468</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01404155277005649</v>
+      </c>
+      <c r="E48">
+        <v>-0.02309070731877923</v>
+      </c>
+      <c r="F48">
+        <v>0.1073823044756659</v>
+      </c>
+      <c r="G48">
+        <v>0.004413103942789642</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08647802991698988</v>
+        <v>0.07784102912811287</v>
       </c>
       <c r="C50">
-        <v>0.06540704657775034</v>
+        <v>-0.07032130633490584</v>
       </c>
       <c r="D50">
-        <v>-0.020458999005652</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.005402392668733809</v>
+      </c>
+      <c r="E50">
+        <v>-0.03978982503126412</v>
+      </c>
+      <c r="F50">
+        <v>0.09528080470263556</v>
+      </c>
+      <c r="G50">
+        <v>-0.05808233970771065</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.0176293488603906</v>
+        <v>0.01219695178625312</v>
       </c>
       <c r="C51">
-        <v>0.03880313719382854</v>
+        <v>-0.0336952515189723</v>
       </c>
       <c r="D51">
-        <v>-0.0101105817815091</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04071075265899627</v>
+      </c>
+      <c r="E51">
+        <v>0.004780597673847058</v>
+      </c>
+      <c r="F51">
+        <v>0.09994279169234171</v>
+      </c>
+      <c r="G51">
+        <v>0.01945698274044595</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09794004785793901</v>
+        <v>0.08948735007699396</v>
       </c>
       <c r="C53">
-        <v>0.06933822103549515</v>
+        <v>-0.08585102919096159</v>
       </c>
       <c r="D53">
-        <v>-0.03017117086278144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03030678155576032</v>
+      </c>
+      <c r="E53">
+        <v>-0.04968268997420446</v>
+      </c>
+      <c r="F53">
+        <v>0.09882170663758999</v>
+      </c>
+      <c r="G53">
+        <v>-0.04053393271098291</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03009931409066167</v>
+        <v>0.03148835044052925</v>
       </c>
       <c r="C54">
-        <v>0.005008960475070227</v>
+        <v>-0.02116902015404352</v>
       </c>
       <c r="D54">
-        <v>-0.002113247292263573</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02488374663757102</v>
+      </c>
+      <c r="E54">
+        <v>-0.01241483580704606</v>
+      </c>
+      <c r="F54">
+        <v>0.1071214054004902</v>
+      </c>
+      <c r="G54">
+        <v>0.002670436534367337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07460312371752259</v>
+        <v>0.08178842341393049</v>
       </c>
       <c r="C55">
-        <v>0.0644060668169102</v>
+        <v>-0.06890549003276443</v>
       </c>
       <c r="D55">
-        <v>-0.02656084140860245</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03611345642170781</v>
+      </c>
+      <c r="E55">
+        <v>-0.04618982868061199</v>
+      </c>
+      <c r="F55">
+        <v>0.0658816436602763</v>
+      </c>
+      <c r="G55">
+        <v>-0.03359079703432389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.15131310618038</v>
+        <v>0.144125292555407</v>
       </c>
       <c r="C56">
-        <v>0.08945328267675434</v>
+        <v>-0.1035470762916348</v>
       </c>
       <c r="D56">
-        <v>-0.02278031051014009</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.03956505789197939</v>
+      </c>
+      <c r="E56">
+        <v>-0.05386484112881563</v>
+      </c>
+      <c r="F56">
+        <v>0.06050675334997546</v>
+      </c>
+      <c r="G56">
+        <v>-0.04268313139090919</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.004806967334876957</v>
+        <v>0.001991045165801656</v>
       </c>
       <c r="C57">
-        <v>0.008079819222362006</v>
+        <v>-0.004177846406562975</v>
       </c>
       <c r="D57">
-        <v>0.03144218131434788</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02783542209932857</v>
+      </c>
+      <c r="E57">
+        <v>-0.002106425083454947</v>
+      </c>
+      <c r="F57">
+        <v>0.01056291024100968</v>
+      </c>
+      <c r="G57">
+        <v>0.003171698045067307</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05882549088890109</v>
+        <v>0.03885441973494884</v>
       </c>
       <c r="C58">
-        <v>0.07664534824395564</v>
+        <v>-0.03781124512737981</v>
       </c>
       <c r="D58">
-        <v>0.9726389270094968</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.6835072070163473</v>
+      </c>
+      <c r="E58">
+        <v>-0.6204643658595096</v>
+      </c>
+      <c r="F58">
+        <v>-0.3153213182543578</v>
+      </c>
+      <c r="G58">
+        <v>-0.02792159527773465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1425863081993508</v>
+        <v>0.1501055879291798</v>
       </c>
       <c r="C59">
-        <v>-0.222048760854459</v>
+        <v>0.2027702559468787</v>
       </c>
       <c r="D59">
-        <v>0.01193172114671867</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02139731879517798</v>
+      </c>
+      <c r="E59">
+        <v>-0.01317477972934433</v>
+      </c>
+      <c r="F59">
+        <v>0.03742015504389782</v>
+      </c>
+      <c r="G59">
+        <v>0.02334018106760233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3137566915217332</v>
+        <v>0.2856424885044345</v>
       </c>
       <c r="C60">
-        <v>0.08565228202778187</v>
+        <v>-0.09804841133682912</v>
       </c>
       <c r="D60">
-        <v>0.0001190830601819999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1425713454018517</v>
+      </c>
+      <c r="E60">
+        <v>0.2945454865201341</v>
+      </c>
+      <c r="F60">
+        <v>-0.1421640272937818</v>
+      </c>
+      <c r="G60">
+        <v>-0.06143352670548106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03625291221790391</v>
+        <v>0.0408278460932437</v>
       </c>
       <c r="C61">
-        <v>0.06203475316925736</v>
+        <v>-0.06353905065033832</v>
       </c>
       <c r="D61">
-        <v>0.0007680749443979208</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03722203305342339</v>
+      </c>
+      <c r="E61">
+        <v>0.002880963520613836</v>
+      </c>
+      <c r="F61">
+        <v>0.0872508713406419</v>
+      </c>
+      <c r="G61">
+        <v>-0.001410130784471223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01691627905785012</v>
+        <v>0.01664639965191353</v>
       </c>
       <c r="C63">
-        <v>0.02698073700795785</v>
+        <v>-0.02879384447094231</v>
       </c>
       <c r="D63">
-        <v>-0.01972154236847265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01405179457295723</v>
+      </c>
+      <c r="E63">
+        <v>-0.01408771301905589</v>
+      </c>
+      <c r="F63">
+        <v>0.09119090423381249</v>
+      </c>
+      <c r="G63">
+        <v>-0.01966867436126128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04816596181731216</v>
+        <v>0.05182240321673987</v>
       </c>
       <c r="C64">
-        <v>0.02954390895401909</v>
+        <v>-0.04810951953806065</v>
       </c>
       <c r="D64">
-        <v>-0.01562381116740571</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01006351877336597</v>
+      </c>
+      <c r="E64">
+        <v>0.002639934879323819</v>
+      </c>
+      <c r="F64">
+        <v>0.09032392050934125</v>
+      </c>
+      <c r="G64">
+        <v>0.01646501036781888</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08490335509803375</v>
+        <v>0.06876425058254598</v>
       </c>
       <c r="C65">
-        <v>0.06053806999680638</v>
+        <v>-0.04337113260302303</v>
       </c>
       <c r="D65">
-        <v>0.009084716196266766</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.07250167634230667</v>
+      </c>
+      <c r="E65">
+        <v>0.006507385971673408</v>
+      </c>
+      <c r="F65">
+        <v>0.03804101584140653</v>
+      </c>
+      <c r="G65">
+        <v>0.006870702931080676</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06181902290230496</v>
+        <v>0.0515763622588959</v>
       </c>
       <c r="C66">
-        <v>0.1193507409675097</v>
+        <v>-0.09985558428614016</v>
       </c>
       <c r="D66">
-        <v>0.005893717477770614</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.06858217973775953</v>
+      </c>
+      <c r="E66">
+        <v>0.01592806166629388</v>
+      </c>
+      <c r="F66">
+        <v>0.09127917976875208</v>
+      </c>
+      <c r="G66">
+        <v>0.01432626696420375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06439139302368135</v>
+        <v>0.05329048983549864</v>
       </c>
       <c r="C67">
-        <v>0.0250937022808454</v>
+        <v>-0.02771513428902871</v>
       </c>
       <c r="D67">
-        <v>-0.01569298527357238</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005784361706186719</v>
+      </c>
+      <c r="E67">
+        <v>-0.008861521006833713</v>
+      </c>
+      <c r="F67">
+        <v>0.0723137838737109</v>
+      </c>
+      <c r="G67">
+        <v>-0.008007095862895462</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1175731192134804</v>
+        <v>0.1513482436972098</v>
       </c>
       <c r="C68">
-        <v>-0.2876422214670403</v>
+        <v>0.2672969159139408</v>
       </c>
       <c r="D68">
-        <v>0.02630944546148631</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.007483745548769909</v>
+      </c>
+      <c r="E68">
+        <v>-0.04113384985984213</v>
+      </c>
+      <c r="F68">
+        <v>0.02331933891435405</v>
+      </c>
+      <c r="G68">
+        <v>0.002527863973383913</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08531671762736973</v>
+        <v>0.08649692001692191</v>
       </c>
       <c r="C69">
-        <v>0.06422814796742865</v>
+        <v>-0.07950013364019366</v>
       </c>
       <c r="D69">
-        <v>-0.03307427586354432</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01443697448723149</v>
+      </c>
+      <c r="E69">
+        <v>-0.01642893133379121</v>
+      </c>
+      <c r="F69">
+        <v>0.0992210935244786</v>
+      </c>
+      <c r="G69">
+        <v>-0.00380280389970452</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.12164703815955</v>
+        <v>0.1406840911259101</v>
       </c>
       <c r="C71">
-        <v>-0.2400597262266943</v>
+        <v>0.2371175322233424</v>
       </c>
       <c r="D71">
-        <v>0.02767426776588071</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02249643749806735</v>
+      </c>
+      <c r="E71">
+        <v>-0.04157337424559342</v>
+      </c>
+      <c r="F71">
+        <v>0.06777760014472009</v>
+      </c>
+      <c r="G71">
+        <v>-0.0167111730785461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.07716666161892076</v>
+        <v>0.08799997894405034</v>
       </c>
       <c r="C72">
-        <v>0.05641833751477026</v>
+        <v>-0.05724638147271191</v>
       </c>
       <c r="D72">
-        <v>-0.04729140842300712</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.006260638001559109</v>
+      </c>
+      <c r="E72">
+        <v>0.0223199136213312</v>
+      </c>
+      <c r="F72">
+        <v>0.07890041630016888</v>
+      </c>
+      <c r="G72">
+        <v>-0.009150838285163745</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4439197231645252</v>
+        <v>0.3590905446764737</v>
       </c>
       <c r="C73">
-        <v>0.0864741505346531</v>
+        <v>-0.08030196326083362</v>
       </c>
       <c r="D73">
-        <v>0.01564154777099583</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.3232251070972825</v>
+      </c>
+      <c r="E73">
+        <v>0.529393124392327</v>
+      </c>
+      <c r="F73">
+        <v>-0.3161911782526075</v>
+      </c>
+      <c r="G73">
+        <v>-0.1603878947651087</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1171595890049343</v>
+        <v>0.1104029222453974</v>
       </c>
       <c r="C74">
-        <v>0.1123142856493793</v>
+        <v>-0.1043101281912657</v>
       </c>
       <c r="D74">
-        <v>-0.02011999179941105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01547585919375472</v>
+      </c>
+      <c r="E74">
+        <v>-0.06332077950170256</v>
+      </c>
+      <c r="F74">
+        <v>0.07715081397110513</v>
+      </c>
+      <c r="G74">
+        <v>-0.05483485556204704</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2630142944452005</v>
+        <v>0.2561293824575621</v>
       </c>
       <c r="C75">
-        <v>0.1201462505729029</v>
+        <v>-0.1346703941916099</v>
       </c>
       <c r="D75">
-        <v>-0.03600909174853464</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1039461783142174</v>
+      </c>
+      <c r="E75">
+        <v>-0.1226448893190741</v>
+      </c>
+      <c r="F75">
+        <v>0.02524981777044552</v>
+      </c>
+      <c r="G75">
+        <v>-0.06333548203707276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1174140003079561</v>
+        <v>0.1275288578157542</v>
       </c>
       <c r="C76">
-        <v>0.102218162075851</v>
+        <v>-0.102987617738536</v>
       </c>
       <c r="D76">
-        <v>-0.03173313286072343</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04508202981746187</v>
+      </c>
+      <c r="E76">
+        <v>-0.0827247247208777</v>
+      </c>
+      <c r="F76">
+        <v>0.07876387233389207</v>
+      </c>
+      <c r="G76">
+        <v>-0.04494595952464848</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07043966434801151</v>
+        <v>0.06722870152030375</v>
       </c>
       <c r="C77">
-        <v>0.05675851313593454</v>
+        <v>-0.06261743712872549</v>
       </c>
       <c r="D77">
-        <v>0.02932524889474436</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05637648539977224</v>
+      </c>
+      <c r="E77">
+        <v>-0.03918995765962465</v>
+      </c>
+      <c r="F77">
+        <v>0.1014220043516356</v>
+      </c>
+      <c r="G77">
+        <v>0.1437767243980203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04345271349281021</v>
+        <v>0.04295114158817784</v>
       </c>
       <c r="C78">
-        <v>0.04757631455113789</v>
+        <v>-0.05562889100592483</v>
       </c>
       <c r="D78">
-        <v>0.003318195933381013</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0569142657511183</v>
+      </c>
+      <c r="E78">
+        <v>0.0186084884244812</v>
+      </c>
+      <c r="F78">
+        <v>0.09790142852651304</v>
+      </c>
+      <c r="G78">
+        <v>0.01094555941695192</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001278899356499167</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.02513406367914687</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01105873268031126</v>
+      </c>
+      <c r="E79">
+        <v>-0.026534402431242</v>
+      </c>
+      <c r="F79">
+        <v>0.02989741536420475</v>
+      </c>
+      <c r="G79">
+        <v>-0.03434064661727371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04989676243808071</v>
+        <v>0.03947408161617132</v>
       </c>
       <c r="C80">
-        <v>0.05588791720547073</v>
+        <v>-0.04713321217801179</v>
       </c>
       <c r="D80">
-        <v>0.01650662999242125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04506370161923121</v>
+      </c>
+      <c r="E80">
+        <v>0.0001074228945970555</v>
+      </c>
+      <c r="F80">
+        <v>0.03555850392458462</v>
+      </c>
+      <c r="G80">
+        <v>0.04878144593281956</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1393883521042551</v>
+        <v>0.1409544303637555</v>
       </c>
       <c r="C81">
-        <v>0.08001153078170674</v>
+        <v>-0.09327204532744236</v>
       </c>
       <c r="D81">
-        <v>-0.02881593249422818</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07607301718557746</v>
+      </c>
+      <c r="E81">
+        <v>-0.1008596880223983</v>
+      </c>
+      <c r="F81">
+        <v>0.03872691836137118</v>
+      </c>
+      <c r="G81">
+        <v>-0.04959416082082157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.06307219034574139</v>
+        <v>0.1814368885971829</v>
       </c>
       <c r="C82">
-        <v>0.04065693089063857</v>
+        <v>-0.127999681885243</v>
       </c>
       <c r="D82">
-        <v>-0.0228546519203593</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2064311382539777</v>
+      </c>
+      <c r="E82">
+        <v>-0.05549968659637298</v>
+      </c>
+      <c r="F82">
+        <v>0.04035998322249425</v>
+      </c>
+      <c r="G82">
+        <v>-0.005660611046451673</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02914613584520838</v>
+        <v>0.02881932159964488</v>
       </c>
       <c r="C83">
-        <v>0.0204016363124622</v>
+        <v>-0.03337983341901567</v>
       </c>
       <c r="D83">
-        <v>0.01432275757894375</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03243374423693531</v>
+      </c>
+      <c r="E83">
+        <v>0.006505060032697269</v>
+      </c>
+      <c r="F83">
+        <v>0.05435023619821049</v>
+      </c>
+      <c r="G83">
+        <v>0.03107901310828027</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2409535315709039</v>
+        <v>0.2102308139518921</v>
       </c>
       <c r="C85">
-        <v>0.1202661812103194</v>
+        <v>-0.1238899904426358</v>
       </c>
       <c r="D85">
-        <v>-0.1056916267077512</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1065126545865906</v>
+      </c>
+      <c r="E85">
+        <v>-0.04542085369936465</v>
+      </c>
+      <c r="F85">
+        <v>-0.01013921574876568</v>
+      </c>
+      <c r="G85">
+        <v>-0.1096292724201054</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01246760826272107</v>
+        <v>0.01494603235612351</v>
       </c>
       <c r="C86">
-        <v>0.02506125407474058</v>
+        <v>-0.026537065024275</v>
       </c>
       <c r="D86">
-        <v>0.003181566752642677</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07309338503014957</v>
+      </c>
+      <c r="E86">
+        <v>0.001680768983663749</v>
+      </c>
+      <c r="F86">
+        <v>0.1616663064279861</v>
+      </c>
+      <c r="G86">
+        <v>0.0322292878003889</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01422472355699309</v>
+        <v>0.02012506051093006</v>
       </c>
       <c r="C87">
-        <v>0.02481868884674927</v>
+        <v>-0.01754560143572799</v>
       </c>
       <c r="D87">
-        <v>0.072971117955137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09676431008653938</v>
+      </c>
+      <c r="E87">
+        <v>-0.04351233314945332</v>
+      </c>
+      <c r="F87">
+        <v>0.1082471231969047</v>
+      </c>
+      <c r="G87">
+        <v>0.05045489470448869</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.09977034268641928</v>
+        <v>0.090069566655786</v>
       </c>
       <c r="C88">
-        <v>0.0643365463800621</v>
+        <v>-0.06194951275416538</v>
       </c>
       <c r="D88">
-        <v>-0.0124269314875041</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.008196888107706605</v>
+      </c>
+      <c r="E88">
+        <v>-0.01435688643644354</v>
+      </c>
+      <c r="F88">
+        <v>0.09342255422181342</v>
+      </c>
+      <c r="G88">
+        <v>0.04537773716608215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1949497889015454</v>
+        <v>0.2131924278632045</v>
       </c>
       <c r="C89">
-        <v>-0.3725957218174509</v>
+        <v>0.369607345802183</v>
       </c>
       <c r="D89">
-        <v>-0.0184063037331478</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01735218131234198</v>
+      </c>
+      <c r="E89">
+        <v>-0.009184192384964611</v>
+      </c>
+      <c r="F89">
+        <v>0.07599476268608937</v>
+      </c>
+      <c r="G89">
+        <v>0.09051107331117701</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1772157582875125</v>
+        <v>0.2010488615408488</v>
       </c>
       <c r="C90">
-        <v>-0.3495894847094722</v>
+        <v>0.3227043838742314</v>
       </c>
       <c r="D90">
-        <v>0.02254943448193947</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01183777974213289</v>
+      </c>
+      <c r="E90">
+        <v>-0.05232870191652506</v>
+      </c>
+      <c r="F90">
+        <v>0.05132725851538123</v>
+      </c>
+      <c r="G90">
+        <v>0.02807462646195297</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2034286943798642</v>
+        <v>0.1918361085723007</v>
       </c>
       <c r="C91">
-        <v>0.1077290498808605</v>
+        <v>-0.132992415124523</v>
       </c>
       <c r="D91">
-        <v>-0.03967083186965067</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08684570901679167</v>
+      </c>
+      <c r="E91">
+        <v>-0.1001757558827299</v>
+      </c>
+      <c r="F91">
+        <v>0.05488618755258681</v>
+      </c>
+      <c r="G91">
+        <v>-0.04669528229988657</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1756072868059145</v>
+        <v>0.1836268289661205</v>
       </c>
       <c r="C92">
-        <v>-0.27831366601715</v>
+        <v>0.2758793385417211</v>
       </c>
       <c r="D92">
-        <v>0.01656614472305491</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.005031117112926344</v>
+      </c>
+      <c r="E92">
+        <v>-0.07634745805032127</v>
+      </c>
+      <c r="F92">
+        <v>0.07591948818597345</v>
+      </c>
+      <c r="G92">
+        <v>0.02732376754001547</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1891838924485064</v>
+        <v>0.2219852368822956</v>
       </c>
       <c r="C93">
-        <v>-0.3283876077827492</v>
+        <v>0.3176335195186143</v>
       </c>
       <c r="D93">
-        <v>0.01750558417911159</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.004190085691526161</v>
+      </c>
+      <c r="E93">
+        <v>-0.03612985325803466</v>
+      </c>
+      <c r="F93">
+        <v>0.05832841100317594</v>
+      </c>
+      <c r="G93">
+        <v>-0.01381273462646262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2767029455555722</v>
+        <v>0.3378944003419927</v>
       </c>
       <c r="C94">
-        <v>0.1397661649255989</v>
+        <v>-0.185654945434908</v>
       </c>
       <c r="D94">
-        <v>-0.06649551449002389</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4157570858872107</v>
+      </c>
+      <c r="E94">
+        <v>-0.3094619426897675</v>
+      </c>
+      <c r="F94">
+        <v>-0.4399505682192034</v>
+      </c>
+      <c r="G94">
+        <v>0.2070129806015757</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.08610175362940715</v>
+        <v>0.08019162978142044</v>
       </c>
       <c r="C95">
-        <v>0.08514466750805809</v>
+        <v>-0.08625702390654409</v>
       </c>
       <c r="D95">
-        <v>0.06531480773260216</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1388544982378989</v>
+      </c>
+      <c r="E95">
+        <v>0.1494340637065052</v>
+      </c>
+      <c r="F95">
+        <v>0.006931491362284378</v>
+      </c>
+      <c r="G95">
+        <v>0.9067220774067958</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2104018473614309</v>
+        <v>0.1950197705071908</v>
       </c>
       <c r="C98">
-        <v>0.03657314735697691</v>
+        <v>-0.04504731712665596</v>
       </c>
       <c r="D98">
-        <v>0.02674838071625698</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1391643064753051</v>
+      </c>
+      <c r="E98">
+        <v>0.1823365353320338</v>
+      </c>
+      <c r="F98">
+        <v>-0.04381844591272148</v>
+      </c>
+      <c r="G98">
+        <v>-0.1028774839291001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01038566065505379</v>
+        <v>0.008869665460654132</v>
       </c>
       <c r="C101">
-        <v>0.02163350635146385</v>
+        <v>-0.02409770518657758</v>
       </c>
       <c r="D101">
-        <v>-0.01198285380063189</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01271300284169706</v>
+      </c>
+      <c r="E101">
+        <v>-0.01270916987999697</v>
+      </c>
+      <c r="F101">
+        <v>0.100374038546514</v>
+      </c>
+      <c r="G101">
+        <v>0.003107363511980523</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1245860012611747</v>
+        <v>0.1235300727995832</v>
       </c>
       <c r="C102">
-        <v>0.07154661430521879</v>
+        <v>-0.09501836189437088</v>
       </c>
       <c r="D102">
-        <v>-0.02963597224124582</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04565398044843091</v>
+      </c>
+      <c r="E102">
+        <v>-0.01316627961499075</v>
+      </c>
+      <c r="F102">
+        <v>0.02545812008711679</v>
+      </c>
+      <c r="G102">
+        <v>-0.01311997834903526</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.0002627236817649451</v>
+        <v>0.0004094554017508941</v>
       </c>
       <c r="C104">
-        <v>0.006343764750266727</v>
+        <v>-0.003216938649796504</v>
       </c>
       <c r="D104">
-        <v>0.01068069982077738</v>
+        <v>0.007367773462514664</v>
+      </c>
+      <c r="E104">
+        <v>0.00215571557062126</v>
+      </c>
+      <c r="F104">
+        <v>-0.01056561367194495</v>
+      </c>
+      <c r="G104">
+        <v>0.003749422174962291</v>
       </c>
     </row>
   </sheetData>
